--- a/Mock Ups/Front End Mockup.xlsx
+++ b/Mock Ups/Front End Mockup.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21924" windowHeight="9348" tabRatio="838" xr2:uid="{E49A8056-3609-49FF-8F04-29D4E5F12538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21924" windowHeight="9348" tabRatio="838" firstSheet="2" activeTab="4" xr2:uid="{E49A8056-3609-49FF-8F04-29D4E5F12538}"/>
   </bookViews>
   <sheets>
     <sheet name="Home - No Sign In" sheetId="1" r:id="rId1"/>
     <sheet name="Home - Signed In - Hmbrgr Open" sheetId="2" r:id="rId2"/>
     <sheet name="Home - Signed In - Hmbrgr Close" sheetId="3" r:id="rId3"/>
-    <sheet name="Qbks Online Load  - Hmbrgr" sheetId="4" r:id="rId4"/>
-    <sheet name="Qbks File Load  - Hmbrgr" sheetId="5" r:id="rId5"/>
-    <sheet name="Load Business  - Hmbrgr" sheetId="6" r:id="rId6"/>
+    <sheet name="Load Business" sheetId="6" r:id="rId4"/>
+    <sheet name="Manual Load - Income Statement" sheetId="7" r:id="rId5"/>
+    <sheet name="Qbks Online Load" sheetId="4" r:id="rId6"/>
+    <sheet name="Qbks File Load" sheetId="5" r:id="rId7"/>
+    <sheet name="Create Template" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>Sign In</t>
   </si>
@@ -131,9 +133,6 @@
     <t>• My Businesses</t>
   </si>
   <si>
-    <t>Select Active Business</t>
-  </si>
-  <si>
     <t>ASDF Business</t>
   </si>
   <si>
@@ -155,14 +154,92 @@
     <t>Activate Selection</t>
   </si>
   <si>
-    <t>Add Business</t>
+    <t>Add Year</t>
+  </si>
+  <si>
+    <t>Add Catgry</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Profit (Loss)</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income (Loss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           • Income Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            • Balance Sheet         </t>
+  </si>
+  <si>
+    <t>My Templates</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>+ New</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Add Project</t>
+  </si>
+  <si>
+    <t>Select Active Project</t>
+  </si>
+  <si>
+    <t>Loaded Template</t>
+  </si>
+  <si>
+    <t>M Temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +307,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +406,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -466,11 +616,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -483,189 +653,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -676,18 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -705,48 +695,416 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,6 +1770,368 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738CE6D0-64DE-4F2F-88A2-4758C75BF5E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="188940"/>
+          <a:ext cx="1158240" cy="573060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD046CB-C60A-462C-8B66-A63D61CFD8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="477593"/>
+          <a:ext cx="647699" cy="246308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C70607-93D5-40EE-A728-804E351724A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769621" y="769620"/>
+          <a:ext cx="190499" cy="143911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894639CD-D509-4632-A312-7A75EF5AA24B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463040" y="190499"/>
+          <a:ext cx="350519" cy="575209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB18544-EAFE-4A96-AC4F-0555876F99C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="220980" y="188940"/>
+          <a:ext cx="1158240" cy="573060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCBF492-D8F2-4E22-9D99-C70A9B0FAB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746760" y="477593"/>
+          <a:ext cx="647699" cy="246308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B33031-A340-4C5E-86CF-477651206430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373381" y="769620"/>
+          <a:ext cx="190499" cy="143911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594359</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4B3210-37E7-49A6-89EF-FF0E7F58E6DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="190499"/>
+          <a:ext cx="350519" cy="575209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1634,7 +2354,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1933,7 +2653,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1953,7 +2673,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738CE6D0-64DE-4F2F-88A2-4758C75BF5E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A908AB29-E579-4763-9FBB-81124E8A7182}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +2689,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="188940"/>
+          <a:off x="220980" y="188940"/>
           <a:ext cx="1158240" cy="573060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1997,7 +2717,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD046CB-C60A-462C-8B66-A63D61CFD8BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FCAD97-9753-4F34-AB61-81D23145B1B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2733,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="477593"/>
+          <a:off x="746760" y="477593"/>
           <a:ext cx="647699" cy="246308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2041,7 +2761,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C70607-93D5-40EE-A728-804E351724A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23A989B-8565-42CD-AD16-049CD3107A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2777,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="769621" y="769620"/>
+          <a:off x="373381" y="769620"/>
           <a:ext cx="190499" cy="143911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2085,7 +2805,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894639CD-D509-4632-A312-7A75EF5AA24B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C8B1B5-E436-45BF-BA54-A55B74CFC6D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2821,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1463040" y="190499"/>
+          <a:off x="1066800" y="190499"/>
           <a:ext cx="350519" cy="575209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2109,6 +2829,1306 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Process 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19A728C-E9D5-4EA2-9ACD-255CC2B224F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2735580" y="1623060"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Revenue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Process 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0A7F61-2C0F-4AD3-B560-42A6FF0CD7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3779520" y="1981200"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Clothes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Process 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A049D9B-45BA-4917-B2A3-A07ECCFABC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="2308860"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Accessories</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Minus Sign 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB4FC67-0C7B-47FF-8DAD-B0D49FBECDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2354580" y="1645920"/>
+          <a:ext cx="320040" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flowchart: Process 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE6B455-7F89-488F-A5FA-A5586CAEC9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2735580" y="2667000"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>COGS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Plus Sign 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBE8387-110E-429F-BFC8-65D25E4F6A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2346960" y="2682240"/>
+          <a:ext cx="281940" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flowchart: Process 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2D0C13-9F69-4608-9DA6-5EBF52B2250C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3124200"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SG&amp;A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Minus Sign 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8752A1-ADBC-451C-B331-65FA03DFEE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2346960" y="3162300"/>
+          <a:ext cx="320040" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Flowchart: Process 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21249419-CB79-41B7-857A-0286F8DBBF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="3444240"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Admin</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Flowchart: Process 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6DF0EF-932D-4871-8358-294BB6523CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3802380" y="3832860"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Payroll</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Process 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6832B711-2327-48A6-94E2-A48BDBC78FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7520940" y="1706880"/>
+          <a:ext cx="472440" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>OR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flowchart: Process 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2314C47C-8586-40E7-A7C9-9C9CC67FFFE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8122920" y="1424940"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Apparel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flowchart: Process 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C983D112-1AD9-4C9C-9160-CE973936459F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8122920" y="1943100"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Clothing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Flowchart: Process 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CA3870-190C-4244-BA78-F55BC524347D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8930640" y="2407920"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Women</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flowchart: Process 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A85778-10F0-4095-9D54-587E1501738B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8290560" y="2651760"/>
+          <a:ext cx="472440" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AND</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flowchart: Process 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91644663-5348-47B5-BB7A-1E0EDCD3B301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="2918460"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Fashion</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Process 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF8AF6A-20A8-47C0-800D-C1CAF7C51435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2720340" y="4290060"/>
+          <a:ext cx="982980" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>All</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Other</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Plus Sign 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC44FD54-C913-4C65-8488-C9E9AE81CCCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="4290060"/>
+          <a:ext cx="281940" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Process 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A8BB6E-38BE-48BA-9AC7-758C4C6B944B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7528560" y="2202180"/>
+          <a:ext cx="472440" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>OR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Flowchart: Process 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F010716-550B-41D5-965E-0859DA19364A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3680460" y="1104900"/>
+          <a:ext cx="441960" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Add</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Flowchart: Process 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7532212-EEAA-44BA-9948-E671F05B697E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8313420" y="1097280"/>
+          <a:ext cx="441960" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Add</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2413,24 +4433,794 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53686A6B-10F5-448C-AEA2-125F7B503154}">
   <dimension ref="B1:V32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="112" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="112"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="117"/>
+    </row>
+    <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="118"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="118"/>
+    </row>
+    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="119"/>
+      <c r="C5" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="123"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="123"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="124"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="127"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="125"/>
+      <c r="C7" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="127"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="125"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="127"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="127"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="127"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="127"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="127"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="127"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+      <c r="U15" s="126"/>
+      <c r="V15" s="127"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="127"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="127"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="126"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="127"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="127"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="126"/>
+      <c r="V20" s="127"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="126"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="126"/>
+      <c r="S21" s="126"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
+      <c r="V21" s="127"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="127"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="127"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="127"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="127"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="125"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="127"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="125"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="127"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="127"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="127"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="125"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="127"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="125"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="127"/>
+    </row>
+    <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="130"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C7:I8"/>
+    <mergeCell ref="D2:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764BCA32-6D3F-455F-84EA-0A65B2B79349}">
+  <dimension ref="B1:V32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -2445,17 +5235,17 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14"/>
+      <c r="U2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -2468,17 +5258,19 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
+      <c r="S3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2497,37 +5289,39 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="52"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2548,19 +5342,21 @@
       <c r="U6" s="4"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="22" t="s">
+    <row r="7" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2573,17 +5369,19 @@
       <c r="U7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+    <row r="8" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2597,8 +5395,10 @@
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="50"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2620,8 +5420,10 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="44"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2645,8 +5447,10 @@
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="50"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2657,6 +5461,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -2667,8 +5472,10 @@
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="50"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2692,8 +5499,10 @@
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="50"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2717,8 +5526,10 @@
       <c r="V13" s="5"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="50"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2728,7 +5539,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="4"/>
@@ -2742,8 +5553,8 @@
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2765,8 +5576,8 @@
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2776,7 +5587,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="4"/>
@@ -2790,8 +5601,8 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2801,7 +5612,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="N17" s="4"/>
@@ -2815,8 +5626,8 @@
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2826,7 +5637,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="N18" s="4"/>
@@ -2840,8 +5651,8 @@
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2851,7 +5662,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="N19" s="4"/>
@@ -2865,8 +5676,8 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2888,8 +5699,8 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2911,8 +5722,8 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2934,8 +5745,8 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2957,8 +5768,8 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2980,8 +5791,8 @@
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3003,8 +5814,8 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3026,8 +5837,8 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -3049,8 +5860,8 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -3072,8 +5883,8 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -3095,8 +5906,8 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3118,8 +5929,8 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -3141,8 +5952,8 @@
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -3164,797 +5975,25 @@
       <c r="V32" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="34">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D2:F4"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C7:I8"/>
-    <mergeCell ref="D2:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764BCA32-6D3F-455F-84EA-0A65B2B79349}">
-  <dimension ref="B1:V32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="14"/>
-    </row>
-    <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
-    </row>
-    <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
+    <mergeCell ref="E7:K8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
@@ -3971,24 +6010,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E7:K8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4012,11 +6033,11 @@
     <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -4031,17 +6052,17 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="14"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4054,19 +6075,19 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -4085,33 +6106,33 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
@@ -4138,15 +6159,15 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -4163,13 +6184,13 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -4317,7 +6338,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="4"/>
@@ -4365,7 +6386,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="4"/>
@@ -4390,7 +6411,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="15" t="s">
         <v>9</v>
       </c>
       <c r="N17" s="4"/>
@@ -4415,7 +6436,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="N18" s="4"/>
@@ -4440,7 +6461,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="N19" s="4"/>
@@ -4754,13 +6775,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C7:I8"/>
+    <mergeCell ref="S3:V3"/>
     <mergeCell ref="D2:F4"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C7:I8"/>
-    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4768,16 +6789,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7AFFE-6466-41D4-A3CF-95A0BE4899E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0550336-A05C-4944-A5DF-79CDA4A7895F}">
   <dimension ref="B1:V32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4785,11 +6806,11 @@
     <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -4804,17 +6825,17 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="14"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4827,19 +6848,19 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -4858,39 +6879,882 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="40"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
     </row>
     <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="109"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="97"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="97"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="97"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="101"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N7:Q8"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586C81DA-8516-4C7F-8F87-267F729205C5}">
+  <dimension ref="B1:V32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="37"/>
+    </row>
+    <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20"/>
+      <c r="C5" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="92"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
+    </row>
+    <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="50"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4912,71 +7776,996 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="177"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="134"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="176" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="177"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="158">
+        <v>2016</v>
+      </c>
+      <c r="M8" s="158">
+        <v>2015</v>
+      </c>
+      <c r="O8" s="158">
+        <v>2014</v>
+      </c>
+      <c r="Q8" s="158">
+        <v>2013</v>
+      </c>
+      <c r="S8" s="158">
+        <v>2012</v>
+      </c>
+      <c r="U8" s="150"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="111"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="162"/>
+      <c r="K9" s="164">
+        <v>10000000</v>
+      </c>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164">
+        <v>5000000</v>
+      </c>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164">
+        <v>7500000</v>
+      </c>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164">
+        <v>8000000</v>
+      </c>
+      <c r="R9" s="164"/>
+      <c r="S9" s="165">
+        <v>2000000</v>
+      </c>
+      <c r="T9" s="149"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="177"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="134"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="147"/>
+      <c r="K10" s="166">
+        <v>6000000</v>
+      </c>
+      <c r="L10" s="167"/>
+      <c r="M10" s="166">
+        <v>3000000</v>
+      </c>
+      <c r="N10" s="167"/>
+      <c r="O10" s="168">
+        <v>6000000</v>
+      </c>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166">
+        <v>9000000</v>
+      </c>
+      <c r="R10" s="166"/>
+      <c r="S10" s="169">
+        <v>1500000</v>
+      </c>
+      <c r="T10" s="149"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="163" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="162"/>
+      <c r="K11" s="164">
+        <v>2000000</v>
+      </c>
+      <c r="L11" s="170"/>
+      <c r="M11" s="164">
+        <v>1000000</v>
+      </c>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164">
+        <v>500000</v>
+      </c>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164">
+        <v>500000</v>
+      </c>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164">
+        <v>200000</v>
+      </c>
+      <c r="T11" s="149"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173">
+        <f>K9-SUM(K10:K11)</f>
+        <v>2000000</v>
+      </c>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173">
+        <f>M9-SUM(M10:M11)</f>
+        <v>1000000</v>
+      </c>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173">
+        <f>O9-SUM(O10:O11)</f>
+        <v>1000000</v>
+      </c>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="173">
+        <f>Q9-SUM(Q10:Q11)</f>
+        <v>-1500000</v>
+      </c>
+      <c r="R12" s="173"/>
+      <c r="S12" s="173">
+        <f>S9-SUM(S10:S11)</f>
+        <v>300000</v>
+      </c>
+      <c r="T12" s="149"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="147"/>
+      <c r="K13" s="168">
+        <v>500000</v>
+      </c>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168">
+        <v>200000</v>
+      </c>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168">
+        <v>300000</v>
+      </c>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168">
+        <v>200000</v>
+      </c>
+      <c r="R13" s="168"/>
+      <c r="S13" s="169">
+        <v>100000</v>
+      </c>
+      <c r="T13" s="149"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="147"/>
+      <c r="K14" s="168">
+        <v>50000</v>
+      </c>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168">
+        <v>75000</v>
+      </c>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168">
+        <v>80000</v>
+      </c>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168">
+        <v>90000</v>
+      </c>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168">
+        <v>95000</v>
+      </c>
+      <c r="T14" s="149"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="163" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="162"/>
+      <c r="K15" s="174">
+        <f>MAX((K12-SUM(K13:K14))*0.4,0)</f>
+        <v>580000</v>
+      </c>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174">
+        <f>MAX((M12-SUM(M13:M14))*0.4,0)</f>
+        <v>290000</v>
+      </c>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174">
+        <f>MAX((O12-SUM(O13:O14))*0.4,0)</f>
+        <v>248000</v>
+      </c>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="174">
+        <f>MAX((Q12-SUM(Q13:Q14))*0.4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="175"/>
+      <c r="S15" s="174">
+        <f>MAX((S12-SUM(S13:S14))*0.4,0)</f>
+        <v>42000</v>
+      </c>
+      <c r="T15" s="149"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="159" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="147"/>
+      <c r="K16" s="168">
+        <f>K12-SUM(K13:K15)</f>
+        <v>870000</v>
+      </c>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168">
+        <f>M12-SUM(M13:M15)</f>
+        <v>435000</v>
+      </c>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168">
+        <f>O12-SUM(O13:O15)</f>
+        <v>372000</v>
+      </c>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="168">
+        <f>Q12-SUM(Q13:Q15)</f>
+        <v>-1790000</v>
+      </c>
+      <c r="R16" s="171"/>
+      <c r="S16" s="168">
+        <f>S12-SUM(S13:S15)</f>
+        <v>63000</v>
+      </c>
+      <c r="T16" s="149"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="150"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="169"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="169"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="169"/>
+      <c r="S19" s="169"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="169"/>
+      <c r="S20" s="169"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
+      <c r="P21" s="169"/>
+      <c r="Q21" s="169"/>
+      <c r="R21" s="169"/>
+      <c r="S21" s="169"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="169"/>
+      <c r="Q22" s="169"/>
+      <c r="R22" s="169"/>
+      <c r="S22" s="169"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="169"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="169"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="169"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="169"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="169"/>
+      <c r="Q26" s="169"/>
+      <c r="R26" s="169"/>
+      <c r="S26" s="169"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="169"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="169"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="169"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="150"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="150"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7AFFE-6466-41D4-A3CF-95A0BE4899E4}">
+  <dimension ref="B1:V32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="37"/>
+    </row>
+    <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="194" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="195" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20"/>
+      <c r="C5" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="92"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
+    </row>
+    <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="50" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="64"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -4993,10 +8782,10 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5004,60 +8793,60 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="56" t="s">
+      <c r="P10" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="61"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="71"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -5074,15 +8863,15 @@
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -5099,10 +8888,10 @@
       <c r="V13" s="5"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -5112,22 +8901,22 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="21"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="68" t="s">
+      <c r="P14" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="70"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -5140,17 +8929,17 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="73"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -5160,20 +8949,20 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="21"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="80"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -5183,7 +8972,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="21"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -5195,8 +8984,8 @@
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -5206,7 +8995,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="21"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -5218,8 +9007,8 @@
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5229,7 +9018,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="21"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -5241,8 +9030,8 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5264,8 +9053,8 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -5287,8 +9076,8 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -5310,8 +9099,8 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5333,8 +9122,8 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -5356,8 +9145,8 @@
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -5379,8 +9168,8 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5402,8 +9191,8 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -5425,8 +9214,8 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5448,8 +9237,8 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -5471,8 +9260,8 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -5494,8 +9283,8 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -5517,8 +9306,8 @@
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -5541,17 +9330,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P7:R8"/>
-    <mergeCell ref="K10:N11"/>
-    <mergeCell ref="P10:R11"/>
-    <mergeCell ref="P14:R16"/>
-    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E7:H9"/>
     <mergeCell ref="E11:H13"/>
-    <mergeCell ref="K7:N8"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -5563,36 +9364,24 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="P7:R8"/>
+    <mergeCell ref="K10:N11"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="P14:R16"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="K7:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089D6A0-B5EA-40D3-AA34-355D6A9AA38E}">
   <dimension ref="B1:V32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5605,11 +9394,11 @@
     <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -5624,17 +9413,17 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="14"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -5647,19 +9436,19 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -5678,39 +9467,39 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="40"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
     </row>
     <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5732,87 +9521,87 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="23"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="16"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="23"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="1"/>
       <c r="U9" s="2"/>
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5820,101 +9609,101 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="23"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="16"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="4"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="4"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
     <row r="13" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="4"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -5922,22 +9711,22 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="23"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -5945,22 +9734,22 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="23"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="4"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -5968,22 +9757,22 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="23"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="4"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="2:22" ht="21" x14ac:dyDescent="0.4">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -5991,24 +9780,24 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="84" t="s">
+      <c r="K17" s="27"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="4"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -6018,7 +9807,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="21"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -6030,8 +9819,8 @@
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -6041,7 +9830,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="21"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -6053,8 +9842,8 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -6076,8 +9865,8 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -6099,8 +9888,8 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -6122,8 +9911,8 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -6145,8 +9934,8 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -6168,8 +9957,8 @@
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -6191,8 +9980,8 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -6214,8 +10003,8 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -6237,8 +10026,8 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -6260,8 +10049,8 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -6283,8 +10072,8 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -6306,8 +10095,8 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -6329,8 +10118,8 @@
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -6353,6 +10142,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:H9"/>
+    <mergeCell ref="P7:R8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:H13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="P14:R16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="S3:V3"/>
@@ -6369,57 +10180,45 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="P14:R16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="P10:R11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:H13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:H9"/>
-    <mergeCell ref="P7:R8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0550336-A05C-4944-A5DF-79CDA4A7895F}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1B02EA-479E-43FE-84EA-18C1FB983B1C}">
   <dimension ref="B1:V32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="3.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:22" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -6434,17 +10233,17 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="14"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -6457,19 +10256,19 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -6488,671 +10287,677 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="40"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="22"/>
     </row>
     <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="27" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="190"/>
+      <c r="V6" s="191"/>
+    </row>
+    <row r="7" spans="2:22" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="27" t="s">
+      <c r="C7" s="177"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="193" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="193"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="192" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="146"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="183" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="184"/>
+      <c r="V7" s="185"/>
+    </row>
+    <row r="8" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="176" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="177"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="188"/>
+      <c r="V8" s="91"/>
+    </row>
+    <row r="9" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="181" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="182"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="176" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="186"/>
+      <c r="V9" s="177"/>
+    </row>
+    <row r="10" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33" t="s">
+      <c r="C10" s="177"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="166"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="176" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="186"/>
+      <c r="V10" s="177"/>
+    </row>
+    <row r="11" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="27" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="176" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="186"/>
+      <c r="V11" s="177"/>
+    </row>
+    <row r="12" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="186"/>
+      <c r="V12" s="177"/>
+    </row>
+    <row r="13" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="187" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="186"/>
+      <c r="V13" s="177"/>
+    </row>
+    <row r="14" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="177"/>
+    </row>
+    <row r="15" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="87" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="177"/>
+    </row>
+    <row r="16" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="103"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="177"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="177"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="186"/>
+      <c r="V18" s="177"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="168"/>
+      <c r="Q19" s="168"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="177"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="177"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="168"/>
+      <c r="Q21" s="168"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="186"/>
+      <c r="V21" s="177"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="168"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="147"/>
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="147"/>
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="168"/>
+      <c r="Q24" s="168"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="147"/>
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="168"/>
+      <c r="Q25" s="168"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="147"/>
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="168"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="147"/>
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="168"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="147"/>
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="168"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="147"/>
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="168"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="168"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="147"/>
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="147"/>
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="147"/>
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -7169,55 +10974,52 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="7"/>
       <c r="V32" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N7:Q8"/>
+  <mergeCells count="46">
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D2:F4"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="S3:V3"/>
